--- a/output/calorimetry/ds.4.cut.overfilled/data.xlsx
+++ b/output/calorimetry/ds.4.cut.overfilled/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -73,31 +73,34 @@
     <t xml:space="preserve">res.rel</t>
   </si>
   <si>
-    <t xml:space="preserve">cnst</t>
+    <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St.Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insignificant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insignificant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -2730,18 +2733,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2761,10 +2764,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4"/>
     </row>
@@ -4229,7 +4232,7 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -4353,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -4470,13 +4473,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -4492,486 +4495,486 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4990,7 +4993,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.4.cut.overfilled/data.xlsx
+++ b/output/calorimetry/ds.4.cut.overfilled/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">res.rel</t>
   </si>
   <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constant</t>
   </si>
   <si>
@@ -82,15 +85,36 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
+    <t xml:space="preserve">4.87304687499999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0528106257343017</t>
+  </si>
+  <si>
     <t xml:space="preserve">-Inf</t>
   </si>
   <si>
+    <t xml:space="preserve">6.56757812500002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30155277506013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insignificant</t>
   </si>
   <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -104,6 +128,15 @@
   </si>
   <si>
     <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
   </si>
   <si>
     <t xml:space="preserve">tot</t>
@@ -2671,10 +2704,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -2733,18 +2766,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2753,7 +2786,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2764,10 +2797,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C4"/>
     </row>
@@ -4085,82 +4118,106 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4.87304687499999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0528106257343017</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6.56757812500002</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.30155277506013</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>-14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4236,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4226,13 +4283,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -4356,104 +4413,62 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4473,13 +4488,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -4495,486 +4510,486 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4993,7 +5008,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.4.cut.overfilled/data.xlsx
+++ b/output/calorimetry/ds.4.cut.overfilled/data.xlsx
@@ -85,31 +85,31 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
+    <t xml:space="preserve">4.87304687499999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0528106257343017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56757812500002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30155277506013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insignificant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87304687499999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0528106257343017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56757812500002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30155277506013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insignificant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">-14</t>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2720,33 +2720,9 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4124,100 +4100,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4294,29 +4228,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13.0743647447613</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0437277677078813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.5113480273213</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.02581878130963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -4327,45 +4261,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>-13.0743647447613</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0437277677078813</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-17.5113480273213</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.02581878130963</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4325,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4438,7 +4339,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -4449,7 +4350,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -4463,7 +4364,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>

--- a/output/calorimetry/ds.4.cut.overfilled/data.xlsx
+++ b/output/calorimetry/ds.4.cut.overfilled/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -85,36 +85,15 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87304687499999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0528106257343017</t>
-  </si>
-  <si>
     <t xml:space="preserve">-Inf</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56757812500002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30155277506013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Insignificant</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">-14</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -128,15 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
   </si>
   <si>
     <t xml:space="preserve">tot</t>
@@ -2704,10 +2674,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -2742,18 +2712,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2762,7 +2732,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2773,10 +2743,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C4"/>
     </row>
@@ -4102,56 +4072,56 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>4.87304687499999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0528106257343017</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+      <c r="B3" t="n">
+        <v>6.56757812500002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.30155277506013</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+      <c r="B5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4140,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4217,13 +4187,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -4314,60 +4284,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+      <c r="A5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4389,13 +4359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -4411,486 +4381,486 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4879,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
